--- a/data poverty.xlsx
+++ b/data poverty.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Desktop\VS\08 - Ottavo post\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marzo\Desktop\secondo_post\Poverty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBC317C4-577D-4598-A5D8-EC369D20BB55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71D175D-4308-4233-B8D3-C05245C23D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{AA6E4140-A61D-461E-BAD1-F1373D05967A}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7270" xr2:uid="{AA6E4140-A61D-461E-BAD1-F1373D05967A}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
     <t>Germany</t>
   </si>
   <si>
-    <t>EU - 27 countries (from 2020)</t>
+    <t>EU</t>
   </si>
 </sst>
 </file>
@@ -497,15 +497,15 @@
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -513,7 +513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -521,7 +521,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -529,7 +529,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -537,7 +537,7 @@
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -545,7 +545,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -553,7 +553,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -561,7 +561,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -569,7 +569,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -577,7 +577,7 @@
         <v>19.899999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -585,7 +585,7 @@
         <v>33.1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -593,7 +593,7 @@
         <v>28.6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -601,7 +601,7 @@
         <v>24.1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -609,7 +609,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -617,7 +617,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -625,7 +625,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -633,7 +633,7 @@
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -641,7 +641,7 @@
         <v>21.4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -649,7 +649,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -657,7 +657,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -665,7 +665,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -673,7 +673,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -681,7 +681,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -689,7 +689,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -697,7 +697,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -705,7 +705,7 @@
         <v>37.6</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -713,7 +713,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -721,7 +721,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -729,7 +729,7 @@
         <v>22.1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -737,7 +737,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>27</v>
       </c>
@@ -745,7 +745,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>28</v>
       </c>
@@ -753,7 +753,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -761,7 +761,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -769,7 +769,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -777,7 +777,7 @@
         <v>29.9</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>32</v>
       </c>
